--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -885,9 +885,55 @@
         <v>2026-02-05T01:03:10.534Z</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B22" t="str">
+        <v>https://www.theguardian.com/australia-news/live/2026/feb/05/australian-politics-live-anthony-albanese-sussan-ley-labor-liberal-question-time-chalmers-budget-cost-of-living-marles-defence-leadership-challenge-spill-ntwnfb</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Australian politics live: PM tells First Nations community ‘we stand with you’ after terror charge laid over alleged Invasion Day bomb attempt</v>
+      </c>
+      <c r="D22" t="str">
+        <v>澳大利亚总理向原住民社区表达支持，此前有人因涉嫌在入侵日策划炸弹袭击而被指控恐怖主义罪行。</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2026-02-05T04:03:38.750Z</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B23" t="str">
+        <v>https://www.zerohedge.com/political/security-expert-illegal-minneapolis-checkpoints-trace-back-marxist-anarchist-movements</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Security Expert: Illegal Minneapolis Checkpoints Trace Back To Marxist, Anarchist Movements</v>
+      </c>
+      <c r="D23" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2026-02-05T04:03:38.750Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -931,9 +931,1619 @@
         <v>2026-02-05T04:03:38.750Z</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Gold and silver mining industry chain</v>
+      </c>
+      <c r="B24" t="str">
+        <v>https://www.zerohedge.com/markets/futures-rise-tech-gains-palantirs-cosmic-reward</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Futures Rise As Tech Gains On Palantir's "Cosmic Reward"</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Palantir业绩提振科技股，带动股指期货上涨，但具体影响范围未知。</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G24" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Gold and silver mining industry chain</v>
+      </c>
+      <c r="B25" t="str">
+        <v>https://www.zerohedge.com/markets/stocks-slide-gold-and-bitcoin-tumble-after-trump-taps-warsh-next-fed-chair</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Stocks Slide, Gold And Bitcoin Tumble After Trump Taps Warsh As Next Fed Chair</v>
+      </c>
+      <c r="D25" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G25" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Gold and silver mining industry chain</v>
+      </c>
+      <c r="B26" t="str">
+        <v>https://www.zerohedge.com/markets/stocks-slide-gold-and-bitcoin-tumble-after-trump-taps-warsh-next-fed-chair</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Stocks Slide, Gold And Bitcoin Tumble After Trump Taps Warsh As Next Fed Chair</v>
+      </c>
+      <c r="D26" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G26" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Gold and silver mining industry chain</v>
+      </c>
+      <c r="B27" t="str">
+        <v>https://www.zerohedge.com/precious-metals/expect-precious-metals-rally-continue-2026</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Expect The Precious Metals Rally To Continue In 2026</v>
+      </c>
+      <c r="D27" t="str">
+        <v>预计贵金属涨势将持续到2026年，但缺乏来源信息，可信度待考。</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G27" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Gold and silver mining industry chain</v>
+      </c>
+      <c r="B28" t="str">
+        <v>https://www.zerohedge.com/markets/stocks-head-first-drop-2026-focus-turns-geopolitics-macro</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Stocks Head For First Drop Of 2026 As Focus Turns To Geopolitics, Macro</v>
+      </c>
+      <c r="D28" t="str">
+        <v>地缘政治和宏观经济担忧导致股市下跌，或为2026年首次下跌。</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G28" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Gold and silver mining industry chain</v>
+      </c>
+      <c r="B29" t="str">
+        <v>https://www.zerohedge.com/markets/stocks-head-first-drop-2026-focus-turns-geopolitics-macro</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Stocks Head For First Drop Of 2026 As Focus Turns To Geopolitics, Macro</v>
+      </c>
+      <c r="D29" t="str">
+        <v>地缘政治和宏观经济担忧导致股市下跌，可能结束2026年的上涨趋势。</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G29" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Gold and silver mining industry chain</v>
+      </c>
+      <c r="B30" t="str">
+        <v>https://www.zerohedge.com/markets/us-equity-futures-jump-record-high-after-core-cpi-comes-cool</v>
+      </c>
+      <c r="C30" t="str">
+        <v>US Equity Futures Jump To Record High After Core CPI Comes In Cool</v>
+      </c>
+      <c r="D30" t="str">
+        <v>核心CPI数据低于预期后，美国股指期货飙升至历史新高，预示市场乐观情绪。</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G30" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Gold and silver mining industry chain</v>
+      </c>
+      <c r="B31" t="str">
+        <v>https://www.zerohedge.com/geopolitical/trump-kicking-brics-out-americas</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Trump Kicking BRICS Out Of The Americas</v>
+      </c>
+      <c r="D31" t="str">
+        <v>据称特朗普计划将金砖国家从美洲地区驱逐出去，可能引发地缘政治和经济格局的重大变化。</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G31" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Gold and silver mining industry chain</v>
+      </c>
+      <c r="B32" t="str">
+        <v>https://www.zerohedge.com/geopolitical/30-ways-trump-impacted-world-his-first-year</v>
+      </c>
+      <c r="C32" t="str">
+        <v>30 Ways Trump Impacted The World In His First Year</v>
+      </c>
+      <c r="D32" t="str">
+        <v>文章列举了特朗普执政第一年对世界产生的30个方面的影响，涵盖政治、经济、社会等领域。</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G32" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Gold and silver mining industry chain</v>
+      </c>
+      <c r="B33" t="str">
+        <v>https://www.rt.com/business/631301-gold-reserves-cbr-gosfund/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Buckets and bullion: Behind the glitter of Russia’s gold reserves</v>
+      </c>
+      <c r="D33" t="str">
+        <v>文章揭示俄罗斯黄金储备的构成、存储和作用，分析其在地缘政治和经济中的战略意义。</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G33" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B34" t="str">
+        <v>https://www.zerohedge.com/markets/silver-crashes-20-china-opens-gold-bitcoin-also-plunging</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Silver Crashes 20% As China Opens, Gold &amp; Bitcoin Also Plunging</v>
+      </c>
+      <c r="D34" t="str">
+        <v>中国开放后，白银暴跌20%，黄金和比特币也大幅下跌，可能预示着市场动荡。</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G34" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B35" t="str">
+        <v>https://www.zerohedge.com/political/run-it-hot-trump-fed-coming-currency-debasement</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Run It Hot: Trump, The Fed, &amp; The Coming Currency Debasement</v>
+      </c>
+      <c r="D35" t="str">
+        <v>文章预测特朗普政府可能通过施压美联储来贬值美元，以刺激经济，但可能带来风险。</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G35" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B36" t="str">
+        <v>https://cyprus-mail.com/2026/02/03/gold-set-for-biggest-daily-gain-since-2008-after-two-session-rout</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Gold set for biggest daily gain since 2008 after two-session rout</v>
+      </c>
+      <c r="D36" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G36" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B37" t="str">
+        <v>https://in-cyprus.philenews.com/insider/european-shares-flat-as-defensives-limit-commodities-slump/</v>
+      </c>
+      <c r="C37" t="str">
+        <v>European shares flat as defensives limit commodities slump</v>
+      </c>
+      <c r="D37" t="str">
+        <v>欧股持平，防御性股票限制了大宗商品下跌的影响，市场情绪谨慎。</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G37" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B38" t="str">
+        <v>https://www.theguardian.com/business/2026/feb/02/plunge-in-price-of-gold-and-silver-rattles-global-stock-markets</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Plunge in price of gold and silver rattles global stock markets</v>
+      </c>
+      <c r="D38" t="str">
+        <v>金银价格暴跌引发全球股市动荡，投资者避险情绪升温，市场面临不确定性。</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G38" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B39" t="str">
+        <v>https://www.zerohedge.com/markets/bitcoin-crashes-nov-2024-lows-amid-15-billion-levered-liquidations</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Bitcoin Crashes To Nov 2024 Lows Amid $1.5 Billion In Levered Liquidations</v>
+      </c>
+      <c r="D39" t="str">
+        <v>比特币暴跌至2024年11月以来新低，导致15亿美元杠杆清算，市场剧烈波动。</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G39" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B40" t="str">
+        <v>https://finance.yahoo.com/news/fed-sends-surprising-message-gold-224700252.html</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Fed sends surprising message on gold and silver price surge</v>
+      </c>
+      <c r="D40" t="str">
+        <v>美联储对黄金和白银价格意外上涨发出令人惊讶的信息，可能影响市场预期和投资策略。</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G40" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B41" t="str">
+        <v>https://www.bloomberg.com/news/videos/2026-01-30/bloomberg-businessweek-daily-1-30-2026-video</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Trump Taps Warsh From 'Central Casting' For Fed | Bloomberg Businessweek Daily 1/30/2026</v>
+      </c>
+      <c r="D41" t="str">
+        <v>特朗普总统提名华尔街人士Warsh担任美联储要职，此举可能影响货币政策走向。</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G41" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B42" t="str">
+        <v>https://finance.yahoo.com/news/gold-silver-surge-as-assault-on-fed-sparks-rush-to-precious-metals-151113516.html</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Gold, silver surge as 'assault on Fed' sparks rush to precious metals</v>
+      </c>
+      <c r="D42" t="str">
+        <v>对美联储政策的质疑引发贵金属价格上涨，投资者涌入黄金和白银避险。</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G42" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B43" t="str">
+        <v>https://www.marketwatch.com/story/what-the-surge-in-gold-and-silver-to-fresh-records-says-about-the-mindset-of-investors-to-start-2026-f0b286b8?mod=mw_rss_topstories</v>
+      </c>
+      <c r="C43" t="str">
+        <v>What the surge in gold and silver to fresh records says about the mindset of investors to start 2026</v>
+      </c>
+      <c r="D43" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G43" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B44" t="str">
+        <v>https://www.zerohedge.com/geopolitical/indo-us-trade-deal-might-sharply-shift-direction-global-systemic-transition</v>
+      </c>
+      <c r="C44" t="str">
+        <v>The Indo-US Trade Deal Might Sharply Shift The Direction Of The Global Systemic Transition</v>
+      </c>
+      <c r="D44" t="str">
+        <v>印美贸易协议可能显著改变全球系统性转型方向，影响地缘政治与经济格局。</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G44" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B45" t="str">
+        <v>https://www.zerohedge.com/markets/whats-warsh-could-happen</v>
+      </c>
+      <c r="C45" t="str">
+        <v>What's The Warsh That Could Happen?</v>
+      </c>
+      <c r="D45" t="str">
+        <v>文章标题暗示可能爆发某种冲突或危机，但具体内容未知，无法准确概括。</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G45" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B46" t="str">
+        <v>https://www.rt.com/india/631866-balance-of-power-shifting-musk/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C46" t="str">
+        <v>‘Balance of power shifting’ – Musk on India and China GDP growth</v>
+      </c>
+      <c r="D46" t="str">
+        <v>马斯克评论印度和中国GDP增长，暗示全球力量平衡正在转变。</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G46" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B47" t="str">
+        <v>https://www.rt.com/news/631769-dmitry-trenin-trumps-nds-2026/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Dmitry Trenin: America First goes global</v>
+      </c>
+      <c r="D47" t="str">
+        <v>德米特里·特列宁认为“美国优先”政策正在全球范围内蔓延，可能影响国际关系和地缘政治格局。</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G47" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B48" t="str">
+        <v>https://www.zerohedge.com/markets/japanese-yields-soar-all-time-high-after-pm-takaichi-calls-snap-election-seeking-more</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Japanese Yields Soar To All Time High After PM Takaichi Calls Snap Election Seeking More Spending, Less Taxes</v>
+      </c>
+      <c r="D48" t="str">
+        <v>日本首相高市考虑提前大选，主张增加支出和减少税收，导致日本国债收益率飙升至历史新高。</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G48" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B49" t="str">
+        <v>https://www.zerohedge.com/markets/japanese-yields-soar-all-time-high-after-pm-takaichi-calls-snap-election-seeking-more</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Japanese Yields Soar To All Time High After PM Takaichi Calls Snap Election Seeking More Spending, Less Taxes</v>
+      </c>
+      <c r="D49" t="str">
+        <v>日本首相高市或因寻求更多支出和更少税收而提前大选，导致日本国债收益率飙升至历史新高。</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G49" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B50" t="str">
+        <v>https://www.zerohedge.com/political/much-defiance-no-strategy-germanys-outrage-trumps-greenland-policy</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Much Defiance, No Strategy: Germany's Outrage At Trump's Greenland Policy</v>
+      </c>
+      <c r="D50" t="str">
+        <v>德国强烈谴责特朗普的格陵兰政策，但缺乏明确的应对战略，凸显欧美关系紧张。</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G50" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B51" t="str">
+        <v>https://www.zerohedge.com/political/much-defiance-no-strategy-germanys-outrage-trumps-greenland-policy</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Much Defiance, No Strategy: Germany's Outrage At Trump's Greenland Policy</v>
+      </c>
+      <c r="D51" t="str">
+        <v>德国对特朗普购买格陵兰的提议表示强烈不满，但缺乏应对策略，凸显欧美关系紧张。</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G51" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B52" t="str">
+        <v>https://www.zerohedge.com/geopolitical/escobar-real-rupture-davos</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Escobar: The Real "Rupture" In Davos</v>
+      </c>
+      <c r="D52" t="str">
+        <v>文章可能探讨了埃斯科瓦尔事件对达沃斯论坛造成的实际负面影响，而非表面上的讨论。</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G52" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B53" t="str">
+        <v>https://www.zerohedge.com/geopolitical/escobar-real-rupture-davos</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Escobar: The Real "Rupture" In Davos</v>
+      </c>
+      <c r="D53" t="str">
+        <v>文章标题暗示埃斯科瓦尔在达沃斯引发了真正的“分裂”，可能指其观点或行动对达沃斯论坛造成了重大影响。</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G53" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B54" t="str">
+        <v>https://www.zerohedge.com/political/eu-vs-elon-musk-battle-over-free-speech-escalates-paris</v>
+      </c>
+      <c r="C54" t="str">
+        <v>EU vs. Elon Musk: The Battle Over Free Speech Escalates In Paris</v>
+      </c>
+      <c r="D54" t="str">
+        <v>欧盟与埃隆·马斯克在巴黎就言论自由问题上的冲突升级，可能影响欧盟数字内容监管和社交媒体平台运营。</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G54" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B55" t="str">
+        <v>https://www.defensenews.com/global/europe/2026/02/02/russia-claims-15-billion-in-2025-arms-exports-with-focus-on-africa/</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Russia claims $15 billion in 2025 arms exports, with focus on Africa</v>
+      </c>
+      <c r="D55" t="str">
+        <v>俄罗斯声称2025年武器出口额将达150亿美元，重点是非洲市场，反映其在全球军火市场的影响力。</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G55" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B56" t="str">
+        <v>https://www.rt.com/news/631769-dmitry-trenin-trumps-nds-2026/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Dmitry Trenin: America First goes global</v>
+      </c>
+      <c r="D56" t="str">
+        <v>德米特里·特列宁认为“美国优先”政策正在全球范围内蔓延，可能影响国际关系和地缘政治格局。</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G56" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B57" t="str">
+        <v>https://www.rt.com/news/631772-nato-bank-prepare-russia-war/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C57" t="str">
+        <v>NATO creating bank to prepare for war with Russia – media</v>
+      </c>
+      <c r="D57" t="str">
+        <v>据报道，北约正在筹建银行，为与俄罗斯的潜在战争做准备，表明防御姿态升级。</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G57" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B58" t="str">
+        <v>https://www.rt.com/news/631772-nato-bank-prepare-russia-war/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C58" t="str">
+        <v>NATO creating bank to prepare for war with Russia – media</v>
+      </c>
+      <c r="D58" t="str">
+        <v>据报道，北约正设立银行以应对与俄罗斯的潜在战争，表明防御姿态升级和长期冲突准备。</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G58" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B59" t="str">
+        <v>https://www.zerohedge.com/geopolitical/paleoconservative-rips-apart-trumps-venezuela-overthrow</v>
+      </c>
+      <c r="C59" t="str">
+        <v>A Paleoconservative Rips Apart Trump's Venezuela Overthrow</v>
+      </c>
+      <c r="D59" t="str">
+        <v>一位古保守派人士严厉批评了特朗普政府推翻委内瑞拉的政策。</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G59" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B60" t="str">
+        <v>https://www.zerohedge.com/political/bessent-reveals-10-us-budget-lost-fraud-signaling-musk-has-unfinished-doge-business</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Bessent Reveals 10% Of US Budget Lost To Fraud, Signaling Musk Has Unfinished DOGE Business</v>
+      </c>
+      <c r="D60" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G60" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B61" t="str">
+        <v>https://www.zerohedge.com/personal-finance/forgotten-man</v>
+      </c>
+      <c r="C61" t="str">
+        <v>The Forgotten Man</v>
+      </c>
+      <c r="D61" t="str">
+        <v>文章可能探讨了被忽视的群体或个体，呼吁关注社会公平与包容。</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G61" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B62" t="str">
+        <v>https://www.zerohedge.com/geopolitical/how-brics-may-deliver-structural-shock-us-dollar-system</v>
+      </c>
+      <c r="C62" t="str">
+        <v>How BRICS May Deliver Structural Shock To US Dollar System</v>
+      </c>
+      <c r="D62" t="str">
+        <v>金砖国家可能通过挑战美元在国际贸易和金融中的主导地位，对美元体系造成结构性冲击。</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G62" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B63" t="str">
+        <v>https://www.zerohedge.com/geopolitical/how-brics-may-deliver-structural-shock-us-dollar-system</v>
+      </c>
+      <c r="C63" t="str">
+        <v>How BRICS May Deliver Structural Shock To US Dollar System</v>
+      </c>
+      <c r="D63" t="str">
+        <v>金砖国家可能通过去美元化政策，对美元主导的国际金融体系构成结构性冲击。</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G63" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>MacroEco-EU</v>
+      </c>
+      <c r="B64" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/cyprus-business-news-stelios-haji-ioannou-maritime-inflation-unemployment-jumbo</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Cyprus Business News: Stelios Haji-Ioannou, maritime, inflation, unemployment, Jumbo</v>
+      </c>
+      <c r="D64" t="str">
+        <v>塞浦路斯商业新闻涵盖Stelios Haji-Ioannou、海运、通货膨胀、失业和Jumbo等议题。</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G64" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>MacroEco-EU</v>
+      </c>
+      <c r="B65" t="str">
+        <v>https://www.zerohedge.com/political/eu-vs-elon-musk-battle-over-free-speech-escalates-paris</v>
+      </c>
+      <c r="C65" t="str">
+        <v>EU vs. Elon Musk: The Battle Over Free Speech Escalates In Paris</v>
+      </c>
+      <c r="D65" t="str">
+        <v>欧盟与埃隆·马斯克在巴黎就言论自由问题上的冲突升级，双方立场对立。</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G65" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>MacroEco-EU</v>
+      </c>
+      <c r="B66" t="str">
+        <v>https://cyprus-mail.com/2026/02/04/cyprus-inflation-climbs-to-1-7-in-january</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Cyprus inflation climbs to 1.7% in January</v>
+      </c>
+      <c r="D66" t="str">
+        <v>塞浦路斯1月通货膨胀率升至1.7%，表明物价小幅上涨，但对经济影响程度尚待观察。</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G66" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>MacroEco-EU</v>
+      </c>
+      <c r="B67" t="str">
+        <v>https://in-cyprus.philenews.com/insider/dollar-holds-gains-on-economic-data-fed-bets-aussie-jumps-on-rba-hike/</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Dollar holds gains on economic data, Fed bets; Aussie jumps on RBA hike</v>
+      </c>
+      <c r="D67" t="str">
+        <v>美国经济数据和美联储预期提振美元，澳洲央行加息推动澳元上涨。</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G67" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>MacroEco-EU</v>
+      </c>
+      <c r="B68" t="str">
+        <v>https://cyprus-mail.com/2026/02/01/cyprus-leads-eu-in-non-performing-government-loans</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Cyprus leads EU in non-performing government loans</v>
+      </c>
+      <c r="D68" t="str">
+        <v>塞浦路斯政府不良贷款比例居欧盟首位，可能影响其财政稳定和经济发展。</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G68" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>MacroEco-EU</v>
+      </c>
+      <c r="B69" t="str">
+        <v>https://cyprus-mail.com/2026/01/31/cyprus-business-now-gdp-forecast-unemployment-minimum-wage-gulf-ties-citea</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Cyprus Business Now: GDP forecast, unemployment, minimum wage, Gulf ties, CITEA</v>
+      </c>
+      <c r="D69" t="str">
+        <v>塞浦路斯经济展望包括GDP预测、失业率、最低工资、海湾关系及CITEA，反映了该国经济发展多方面动态。</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G69" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>MacroEco-EU</v>
+      </c>
+      <c r="B70" t="str">
+        <v>https://cyprus-mail.com/2026/01/30/domestic-demand-set-to-drive-robust-economic-momentum-in-cyprus</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Domestic demand set to drive robust economic momentum in Cyprus</v>
+      </c>
+      <c r="D70" t="str">
+        <v>塞浦路斯预计国内需求将推动强劲的经济增长势头，预示着经济前景乐观。</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G70" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>MacroEco-EU</v>
+      </c>
+      <c r="B71" t="str">
+        <v>https://cyprus-mail.com/2026/01/30/domestic-demand-set-to-drive-robust-economic-momentum-in-cyprus</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Domestic demand set to drive robust economic momentum in Cyprus</v>
+      </c>
+      <c r="D71" t="str">
+        <v>塞浦路斯预计国内需求将推动强劲的经济增长势头，预示着经济前景乐观。</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G71" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>MacroEco-EU</v>
+      </c>
+      <c r="B72" t="str">
+        <v>https://cyprus-mail.com/2026/01/15/cyprus-maintains-services-strength-despite-broader-eu-surplus-dip</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Cyprus maintains services strength despite broader EU surplus dip</v>
+      </c>
+      <c r="D72" t="str">
+        <v>塞浦路斯在欧盟盈余普遍下降的情况下，仍保持了服务业的优势。</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G72" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>MacroEco-EU</v>
+      </c>
+      <c r="B73" t="str">
+        <v>https://cyprus-mail.com/2026/01/16/cyprus-business-now-port-workers-real-estate-foreign-direct-investment-rescued-sinking-ship</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Cyprus Business Now: port workers, real estate, foreign direct investment, rescued sinking ship</v>
+      </c>
+      <c r="D73" t="str">
+        <v>塞浦路斯商业新闻涉及港口工人问题、房地产动态、外国直接投资以及一艘沉船救援，反映经济多元挑战与机遇。</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G73" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B74" t="str">
+        <v>https://www.zerohedge.com/political/5-things-know-about-trumps-education-policy-rollout</v>
+      </c>
+      <c r="C74" t="str">
+        <v>5 Things To Know About Trump's Education Policy Rollout</v>
+      </c>
+      <c r="D74" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E74" t="str">
+        <v/>
+      </c>
+      <c r="F74" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G74" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B75" t="str">
+        <v>https://www.zerohedge.com/technology/europes-ai-ambitions-threatened-soaring-memory-chip-prices</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Europe's AI Ambitions Threatened By Soaring Memory Chip Prices</v>
+      </c>
+      <c r="D75" t="str">
+        <v>内存芯片价格飙升或将阻碍欧洲发展人工智能的雄心，影响其技术竞争力。</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G75" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B76" t="str">
+        <v>https://www.zerohedge.com/markets/futures-drop-after-latest-trump-headline-vortex-silver-slides-ahead-index-rebalance</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Futures Drop After Latest Trump Headline Vortex, Silver Slides Ahead Of Index Rebalance</v>
+      </c>
+      <c r="D76" t="str">
+        <v>特朗普相关消息引发期货下跌，白银在指数再平衡前下滑，市场受政治和技术因素影响。</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G76" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B77" t="str">
+        <v>https://www.zerohedge.com/markets/futures-drop-after-latest-trump-headline-vortex-silver-slides-ahead-index-rebalance</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Futures Drop After Latest Trump Headline Vortex, Silver Slides Ahead Of Index Rebalance</v>
+      </c>
+      <c r="D77" t="str">
+        <v>特朗普相关消息引发期货下跌，白银在指数再平衡前下滑。</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G77" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B78" t="str">
+        <v>https://www.zerohedge.com/markets/us-equity-futures-jump-record-high-after-core-cpi-comes-cool</v>
+      </c>
+      <c r="C78" t="str">
+        <v>US Equity Futures Jump To Record High After Core CPI Comes In Cool</v>
+      </c>
+      <c r="D78" t="str">
+        <v>核心CPI数据低于预期后，美国股指期货创下历史新高，预示市场乐观情绪。</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G78" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B79" t="str">
+        <v>https://www.zerohedge.com/markets/us-equity-futures-jump-record-high-after-core-cpi-comes-cool</v>
+      </c>
+      <c r="C79" t="str">
+        <v>US Equity Futures Jump To Record High After Core CPI Comes In Cool</v>
+      </c>
+      <c r="D79" t="str">
+        <v>美国核心CPI数据低于预期，美股期货飙升至历史新高，市场乐观情绪高涨。</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G79" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B80" t="str">
+        <v>https://www.scmp.com/tech/tech-trends/article/3339953/chinas-spacemit-launch-server-class-risc-v-processor-after-raising-us86-million?utm_source=rss_feed</v>
+      </c>
+      <c r="C80" t="str">
+        <v>China’s SpacemiT to launch server-class RISC-V processor after raising US$86 million</v>
+      </c>
+      <c r="D80" t="str">
+        <v>SpacemiT融资8600万美元后将推出服务器级RISC-V处理器，表明中国在RISC-V芯片领域取得进展。</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G80" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B81" t="str">
+        <v>https://focustaiwan.tw/business/202601150025</v>
+      </c>
+      <c r="C81" t="str">
+        <v>TSMC's Fab 2 in Arizona to begin mass production in 2nd half of 2027</v>
+      </c>
+      <c r="D81" t="str">
+        <v>台积电亚利桑那州Fab 2工厂预计2027下半年开始量产，增强其在美国的芯片制造能力。</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G81" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B82" t="str">
+        <v>https://www.zerohedge.com/political/big-bet-apprenticeships-frozen-labor-market</v>
+      </c>
+      <c r="C82" t="str">
+        <v>A Big Bet On Apprenticeships In A Frozen Labor Market</v>
+      </c>
+      <c r="D82" t="str">
+        <v>在劳动力市场停滞不前的情况下，学徒制被视为一种重要解决方案，以填补技能缺口并促进就业，但具体细节未知。</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G82" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B83" t="str">
+        <v>https://www.zerohedge.com/geopolitical/30-ways-trump-impacted-world-his-first-year</v>
+      </c>
+      <c r="C83" t="str">
+        <v>30 Ways Trump Impacted The World In His First Year</v>
+      </c>
+      <c r="D83" t="str">
+        <v>文章列举了特朗普执政第一年对世界产生的30个方面的影响，涵盖政治、经济、社会等多个领域。</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G83" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B84" t="str">
+        <v>https://finance.yahoo.com/news/whats-next-silver-why-considering-193957539.html</v>
+      </c>
+      <c r="C84" t="str">
+        <v>What's Next for Silver? Why Considering Both Sides of the Coin Matters For What Comes Next.</v>
+      </c>
+      <c r="D84" t="str">
+        <v>白银市场前景分析，强调多角度评估的重要性，以预测未来走势。</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G84" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B85" t="str">
+        <v>https://www.theguardian.com/world/2026/feb/05/sanctions-significant-impact-russian-economy-interview-eu-special-envoy-david-osullivan</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Sanctions having ‘significant impact’ on Russian economy, says EU special envoy</v>
+      </c>
+      <c r="D85" t="str">
+        <v>欧盟特使表示，制裁对俄罗斯经济产生了“重大影响”，但具体影响未明。</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G85" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B86" t="str">
+        <v>https://www.theguardian.com/world/2026/feb/05/sanctions-significant-impact-russian-economy-interview-eu-special-envoy-david-osullivan</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Sanctions having ‘significant impact’ on Russian economy, says EU special envoy</v>
+      </c>
+      <c r="D86" t="str">
+        <v>欧盟特使表示，制裁对俄罗斯经济产生了“重大影响”。</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G86" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B87" t="str">
+        <v>https://www.theguardian.com/world/2026/feb/05/sanctions-significant-impact-russian-economy-interview-eu-special-envoy-david-osullivan</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Sanctions having ‘significant impact’ on Russian economy, says EU special envoy</v>
+      </c>
+      <c r="D87" t="str">
+        <v>欧盟特使表示，制裁对俄罗斯经济产生了“重大影响”，但具体影响未明。</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G87" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B88" t="str">
+        <v>https://www.theguardian.com/world/2026/feb/05/sanctions-significant-impact-russian-economy-interview-eu-special-envoy-david-osullivan</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Sanctions having ‘significant impact’ on Russian economy, says EU special envoy</v>
+      </c>
+      <c r="D88" t="str">
+        <v>欧盟特使表示，对俄罗斯的制裁对俄罗斯经济产生了“重大影响”。</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G88" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B89" t="str">
+        <v>https://finance.yahoo.com/news/corn-posting-midday-gains-tuesday-182151478.html</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Corn Posting Midday Gains on Tuesday</v>
+      </c>
+      <c r="D89" t="str">
+        <v>周二玉米价格午盘上涨，具体原因未知，可能受供需关系或市场情绪影响。</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G89" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B90" t="str">
+        <v>https://seekingalpha.com/article/4866175-pan-american-silver-paas-stock-finding-value-in-an-already-hot-market?source=feed_all_articles</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Pan American Silver: Finding Value In An Already Hot Market</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Pan American Silver 在火热的市场中寻找价值，可能涉及收购或战略调整，以保持竞争力。</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G90" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B91" t="str">
+        <v>https://www.coindesk.com/markets/2026/02/05/silver-s-17-plunge-reignites-market-behaviour-that-once-topped-bitcoin</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Silver’s 17% plunge reignites market behaviour that once topped bitcoin liquidations</v>
+      </c>
+      <c r="D91" t="str">
+        <v>白银暴跌17%重现市场行为，曾超越比特币清算，或预示市场风险偏好变化。</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G91" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B92" t="str">
+        <v>https://finance.yahoo.com/news/jpmorgan-8-5k-gold-call-165708264.html</v>
+      </c>
+      <c r="C92" t="str">
+        <v>JPMorgan’s $8.5k Gold Call Just Got More Interesting After Friday’s Historic Crash</v>
+      </c>
+      <c r="D92" t="str">
+        <v>在金价暴跌后，摩根大通此前预测金价将达8500美元的说法更引人关注，市场对其可行性产生疑问。</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G92" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B93" t="str">
+        <v>https://finance.yahoo.com/news/bitcoin-massively-outperform-gold-over-165722271.html</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Bitcoin will 'massively' outperform gold over 10 years, says Pantera's Dan Morehead</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Pantera Capital的Dan Morehead预测比特币未来十年将“大幅”跑赢黄金，暗示其长期投资价值。</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G93" t="str">
+        <v>2026-02-05T06:29:32.563Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G93"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2541,9 +2541,32 @@
         <v>2026-02-05T06:29:32.563Z</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B94" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/cyprus-represented-at-kuwait-talks-on-global-digital-cooperation</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Cyprus represented at Kuwait talks on digital prosperity</v>
+      </c>
+      <c r="D94" t="str">
+        <v>塞浦路斯参加科威特关于数字繁荣的会谈，旨在促进数字经济发展合作。</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G94" t="str">
+        <v>2026-02-05T06:42:43.825Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G93"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G94"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2564,9 +2564,55 @@
         <v>2026-02-05T06:42:43.825Z</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B95" t="str">
+        <v>https://in-cyprus.philenews.com/local/kombos-washington-meetings-arms-embargo-cyprus-us-partnership/</v>
+      </c>
+      <c r="C95" t="str">
+        <v>FM Kombos discusses arms embargo extension, IMEC and Cyprus in Washington meetings</v>
+      </c>
+      <c r="D95" t="str">
+        <v>塞浦路斯外长在华盛顿讨论武器禁运延期、IMEC倡议及塞浦路斯相关议题。</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G95" t="str">
+        <v>2026-02-05T08:29:18.526Z</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B96" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/no-arrest-warrant-issued-for-phedonos-police-say</v>
+      </c>
+      <c r="C96" t="str">
+        <v>No arrest warrant issued for Phedonos, police say</v>
+      </c>
+      <c r="D96" t="str">
+        <v>警方表示，未对Phedonos发出逮捕令，具体原因未知。</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G96" t="str">
+        <v>2026-02-05T08:29:18.526Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G94"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G96"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,9 +2610,55 @@
         <v>2026-02-05T08:29:18.526Z</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B97" t="str">
+        <v>https://www.theguardian.com/world/live/2026/feb/05/ukraine-russia-us-talk-end-war-abu-dhabi-live-updates-latest-news</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Trilateral talks to end Russia’s invasion of Ukraine restart in Abu Dhabi – Europe live</v>
+      </c>
+      <c r="D97" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E97" t="str">
+        <v/>
+      </c>
+      <c r="F97" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G97" t="str">
+        <v>2026-02-05T10:30:05.578Z</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B98" t="str">
+        <v>https://www.theguardian.com/world/live/2026/feb/05/ukraine-russia-us-talk-end-war-abu-dhabi-live-updates-latest-news</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Trilateral talks to end Russia’s invasion of Ukraine restart in Abu Dhabi - Europe live</v>
+      </c>
+      <c r="D98" t="str">
+        <v>俄乌战争三方会谈在阿布扎比重启，旨在结束冲突。（具体细节未知）</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G98" t="str">
+        <v>2026-02-05T10:30:05.578Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G96"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G98"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2656,9 +2656,239 @@
         <v>2026-02-05T10:30:05.578Z</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B99" t="str">
+        <v>https://finance.yahoo.com/personal-finance/investing/article/gold-price-today-thursday-february-5-gold-opens-below-4900-per-ounce-130036313.html</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Gold price today, Thursday, February 5: Gold opens below $4,900 per ounce</v>
+      </c>
+      <c r="D99" t="str">
+        <v>2月5日，黄金开盘价低于每盎司4900美元，表明金价可能出现小幅下跌。</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G99" t="str">
+        <v>2026-02-05T12:31:35.222Z</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B100" t="str">
+        <v>https://www.aljazeera.com/sports/2026/2/5/algerian-boxer-khelif-open-to-genetic-testing-by-ioc-for-2028-olympics?traffic_source=rss</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Algerian boxer Khelif open to genetic testing by IOC for 2028 Olympics</v>
+      </c>
+      <c r="D100" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E100" t="str">
+        <v/>
+      </c>
+      <c r="F100" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G100" t="str">
+        <v>2026-02-05T12:31:35.222Z</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B101" t="str">
+        <v>https://finance.yahoo.com/news/cathie-wood-notes-bullish-moves-233110350.html</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Cathie Wood Notes Bullish Moves In Gold Led Bitcoin Bounces In Last 2 Major Cycles, Calls These Cryptos 'Good Diversifiers'</v>
+      </c>
+      <c r="D101" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E101" t="str">
+        <v/>
+      </c>
+      <c r="F101" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G101" t="str">
+        <v>2026-02-05T12:31:35.222Z</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B102" t="str">
+        <v>https://www.aljazeera.com/economy/2026/2/5/in-pakistan-gold-price-rollercoaster-pushes-buyers-to-silver?traffic_source=rss</v>
+      </c>
+      <c r="C102" t="str">
+        <v>In Pakistan, gold price rollercoaster pushes buyers to silver</v>
+      </c>
+      <c r="D102" t="str">
+        <v>巴基斯坦金价剧烈波动，促使消费者转向购买白银。</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G102" t="str">
+        <v>2026-02-05T12:31:35.222Z</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B103" t="str">
+        <v>https://finance.yahoo.com/news/big-short-investor-michael-burry-231654075.html</v>
+      </c>
+      <c r="C103" t="str">
+        <v>‘Big Short’ investor Michael Burry warns bitcoin plunge could trigger $1 billion gold, silver selloff</v>
+      </c>
+      <c r="D103" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E103" t="str">
+        <v/>
+      </c>
+      <c r="F103" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G103" t="str">
+        <v>2026-02-05T12:31:35.222Z</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B104" t="str">
+        <v>https://focustaiwan.tw/society/202602050016</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Central bank reclaims unsold lunar new year coins amid surge in silver prices</v>
+      </c>
+      <c r="D104" t="str">
+        <v>由于银价上涨，央行回收未售出的农历新年纪念币，可能影响市场供应和收藏价值。</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G104" t="str">
+        <v>2026-02-05T12:31:35.222Z</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B105" t="str">
+        <v>https://www.scmp.com/news/china/diplomacy/article/3342494/chinas-chokehold-trumps-stockpile-europe-looks-least-bad-rare-earth-bet?utm_source=rss_feed</v>
+      </c>
+      <c r="C105" t="str">
+        <v>From China’s chokehold to Trump’s stockpile, Europe looks for least bad rare earth bet</v>
+      </c>
+      <c r="D105" t="str">
+        <v>欧洲寻求摆脱对中国稀土的依赖，同时权衡特朗普时期政策的影响，寻找风险最小的替代方案。</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G105" t="str">
+        <v>2026-02-05T12:31:35.222Z</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B106" t="str">
+        <v>https://www.scmp.com/news/china/diplomacy/article/3342494/chinas-chokehold-trumps-stockpile-europe-looks-least-bad-rare-earth-bet?utm_source=rss_feed</v>
+      </c>
+      <c r="C106" t="str">
+        <v>From China’s chokehold to Trump’s stockpile, Europe looks for least bad rare earth bet</v>
+      </c>
+      <c r="D106" t="str">
+        <v>欧洲寻求摆脱对中国稀土依赖，同时考虑特朗普时期储备政策，寻找风险最小的替代方案。</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G106" t="str">
+        <v>2026-02-05T12:31:35.222Z</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B107" t="str">
+        <v>https://www.scmp.com/news/china/diplomacy/article/3342494/chinas-chokehold-trumps-stockpile-europe-looks-least-bad-rare-earth-bet?utm_source=rss_feed</v>
+      </c>
+      <c r="C107" t="str">
+        <v>From China’s chokehold to Trump’s stockpile, Europe looks for least bad rare earth bet</v>
+      </c>
+      <c r="D107" t="str">
+        <v>欧洲寻求摆脱对中国稀土依赖，同时权衡特朗普时期政策影响，以确保稀土供应多元化。</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G107" t="str">
+        <v>2026-02-05T12:31:35.222Z</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B108" t="str">
+        <v>https://www.scmp.com/news/china/diplomacy/article/3342494/chinas-chokehold-trumps-stockpile-europe-looks-least-bad-rare-earth-bet?utm_source=rss_feed</v>
+      </c>
+      <c r="C108" t="str">
+        <v>From China’s chokehold to Trump’s stockpile, Europe looks for least bad rare earth bet</v>
+      </c>
+      <c r="D108" t="str">
+        <v>欧洲寻求摆脱对中国稀土的依赖，同时权衡特朗普时期政策的影响，寻找风险最小的稀土供应方案。</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G108" t="str">
+        <v>2026-02-05T12:31:35.222Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G98"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G108"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2886,9 +2886,101 @@
         <v>2026-02-05T12:31:35.222Z</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B109" t="str">
+        <v>https://www.scmp.com/tech/tech-war/article/3342524/tsmc-japan-plan-advanced-chips-seen-hedge-against-pressure-us-china?utm_source=rss_feed</v>
+      </c>
+      <c r="C109" t="str">
+        <v>TSMC Japan plan for advanced chips seen as hedge against pressure from US, China</v>
+      </c>
+      <c r="D109" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E109" t="str">
+        <v/>
+      </c>
+      <c r="F109" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G109" t="str">
+        <v>2026-02-05T12:33:36.509Z</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B110" t="str">
+        <v>https://in-cyprus.philenews.com/local/cyprus-mep-fidias-panayiotou-pro-russian-parliament-group-slovak-allies/</v>
+      </c>
+      <c r="C110" t="str">
+        <v>MEP Fidias Panayiotou plans pro-Russian European Parliament group</v>
+      </c>
+      <c r="D110" t="str">
+        <v>塞浦路斯欧洲议会议员Fidias Panayiotou计划组建亲俄欧洲议会党团，可能影响欧盟对俄政策。</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G110" t="str">
+        <v>2026-02-05T12:33:36.509Z</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B111" t="str">
+        <v>https://focustaiwan.tw/culture/202602050017</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Japanese cyclists to tour Taiwan in thanks for quake aid</v>
+      </c>
+      <c r="D111" t="str">
+        <v>日本自行车队将环台骑行，以感谢台湾在日本地震后提供的援助。</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G111" t="str">
+        <v>2026-02-05T12:33:36.509Z</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B112" t="str">
+        <v>https://in-cyprus.philenews.com/local/police-inform-military-bullets-larnaca-hospital-toilets/</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Authorities inform military over bullets found in Larnaca Hospital toilets</v>
+      </c>
+      <c r="D112" t="str">
+        <v>拉纳卡医院厕所发现子弹，当局已通知军方，原因和威胁程度未知。</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G112" t="str">
+        <v>2026-02-05T12:33:36.509Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G108"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G112"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2978,9 +2978,147 @@
         <v>2026-02-05T12:33:36.509Z</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B113" t="str">
+        <v>https://www.rt.com/india/632056-india-open-to-importing-venezuelan/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C113" t="str">
+        <v>India ‘open’ to importing Venezuelan oil – Foreign Ministry</v>
+      </c>
+      <c r="D113" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E113" t="str">
+        <v/>
+      </c>
+      <c r="F113" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G113" t="str">
+        <v>2026-02-05T14:37:20.497Z</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B114" t="str">
+        <v>https://www.rt.com/news/632027-handcuffed-blindfolded-palestinian-returnee-rafah/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C114" t="str">
+        <v>‘They handcuffed and blindfolded us’ – Palestinian returnee to Gaza</v>
+      </c>
+      <c r="D114" t="str">
+        <v>一名返回加沙的巴勒斯坦人声称遭到逮捕、戴上手铐和蒙眼，反映了加沙地带严峻的人权状况。</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G114" t="str">
+        <v>2026-02-05T14:37:20.497Z</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B115" t="str">
+        <v>https://www.zerohedge.com/geopolitical/golds-going-10000-martin-armstrong-warns-europe-desperate-war</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Gold's Going To $10,000: Martin Armstrong Warns "Europe Is Desperate For War"</v>
+      </c>
+      <c r="D115" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E115" t="str">
+        <v/>
+      </c>
+      <c r="F115" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G115" t="str">
+        <v>2026-02-05T14:37:20.497Z</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B116" t="str">
+        <v>https://www.bloomberg.com/news/articles/2026-02-05/us-and-russia-agree-to-restart-military-to-military-talks</v>
+      </c>
+      <c r="C116" t="str">
+        <v>US and Russia Agree to Restart Military-to-Military Talks</v>
+      </c>
+      <c r="D116" t="str">
+        <v>美俄同意重启军事对话，旨在降低冲突风险，稳定局势。</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G116" t="str">
+        <v>2026-02-05T14:37:20.497Z</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B117" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/ukraine-russia-end-second-day-of-peace-talks-agree-prisoner-swap</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Ukraine, Russia end second day of peace talks, agree prisoner swap</v>
+      </c>
+      <c r="D117" t="str">
+        <v>乌克兰与俄罗斯结束第二轮和平谈判，同意交换战俘，为潜在的人道主义进展，但根本冲突未决。</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G117" t="str">
+        <v>2026-02-05T14:37:20.497Z</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B118" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/turkey-is-doing-its-best-to-prevent-us-iran-conflict-erdogan-says</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Turkey is doing its best to prevent US-Iran conflict, Erdogan says</v>
+      </c>
+      <c r="D118" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E118" t="str">
+        <v/>
+      </c>
+      <c r="F118" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G118" t="str">
+        <v>2026-02-05T14:37:20.497Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G112"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G118"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3116,9 +3116,78 @@
         <v>2026-02-05T14:37:20.497Z</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B119" t="str">
+        <v>https://www.zerohedge.com/markets/quarrel-faraway-land</v>
+      </c>
+      <c r="C119" t="str">
+        <v>A Quarrel In A Faraway Land...</v>
+      </c>
+      <c r="D119" t="str">
+        <v>分析失败</v>
+      </c>
+      <c r="E119" t="str">
+        <v/>
+      </c>
+      <c r="F119" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G119" t="str">
+        <v>2026-02-05T16:32:35.693Z</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B120" t="str">
+        <v>https://www.zerohedge.com/markets/job-openings-crater-most-2023-lowest-5-years-payrolls-set-negative-print</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Job Openings Crater Most Since 2023 To Lowest In 5 Years As Payrolls Set For Negative Print</v>
+      </c>
+      <c r="D120" t="str">
+        <v>职位空缺大幅下降至五年低点，预示就业市场降温，可能导致非农就业数据负增长。</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G120" t="str">
+        <v>2026-02-05T16:32:35.693Z</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B121" t="str">
+        <v>https://tass.com/world/2082479</v>
+      </c>
+      <c r="C121" t="str">
+        <v>US and Russia agree to resume high-level military dialogue — EUCOM</v>
+      </c>
+      <c r="D121" t="str">
+        <v>美国和俄罗斯同意恢复高级别军事对话，可能旨在降低军事误判和冲突风险。</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G121" t="str">
+        <v>2026-02-05T16:32:35.693Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G118"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G121"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3185,9 +3185,101 @@
         <v>2026-02-05T16:32:35.693Z</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B122" t="str">
+        <v>https://www.theguardian.com/world/2026/feb/05/shin-bet-chief-brother-charged-assisting-enemy-cigarette-smuggling-gaza</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Shin Bet chief’s brother charged with ‘assisting enemy’ over cigarette smuggling in Gaza</v>
+      </c>
+      <c r="D122" t="str">
+        <v>以色列情报机构负责人Shin Bet的兄弟因涉嫌向加沙走私香烟，被指控“协助敌人”。</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G122" t="str">
+        <v>2026-02-05T18:34:37.365Z</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B123" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/as-treaty-expires-russia-says-its-still-ready-to-talk-to-us-on-nuclear-limits</v>
+      </c>
+      <c r="C123" t="str">
+        <v>As treaty expires, Russia says it’s still ready to talk to US on nuclear limits</v>
+      </c>
+      <c r="D123" t="str">
+        <v>尽管条约到期，俄罗斯表示仍愿与美国就核限制进行谈判，暗示对话空间尚存。</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+      <c r="F123" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G123" t="str">
+        <v>2026-02-05T18:34:37.365Z</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B124" t="str">
+        <v>https://thediplomat.com/2026/02/vietnam-planning-for-second-us-invasion-leaked-government-document-claims/</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Vietnam Planning For ‘Second US Invasion,’ Leaked Government Document Claims</v>
+      </c>
+      <c r="D124" t="str">
+        <v>泄露文件显示越南正为可能的“第二次美国入侵”做准备，引发对地区局势的担忧。</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G124" t="str">
+        <v>2026-02-05T18:34:37.365Z</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B125" t="str">
+        <v>https://www.coindesk.com/markets/2026/02/05/gemini-to-exit-u-k-eu-and-australia-reduce-staff-and-focus-on-u-s-and-prediction-markets</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Gemini to exit U.K., EU and Australia, reduce staff by 25%, and focus on U.S. and prediction markets</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Gemini交易所将退出英国、欧盟和澳大利亚市场，裁员25%，专注于美国和预测市场。</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G125" t="str">
+        <v>2026-02-05T18:34:37.365Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G121"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G125"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3277,9 +3277,101 @@
         <v>2026-02-05T18:34:37.365Z</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B126" t="str">
+        <v>https://www.defensenews.com/global/europe/2026/02/05/us-and-russia-agree-to-reestablish-military-dialogue-after-ukraine-talks/</v>
+      </c>
+      <c r="C126" t="str">
+        <v>US and Russia agree to reestablish military dialogue after Ukraine talks</v>
+      </c>
+      <c r="D126" t="str">
+        <v>美俄同意在乌克兰会谈后重建军事对话，旨在降低冲突风险，稳定局势。</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G126" t="str">
+        <v>2026-02-05T20:20:50.470Z</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B127" t="str">
+        <v>https://www.militarytimes.com/global/europe/2026/02/05/us-and-russia-agree-to-reestablish-military-dialogue-after-ukraine-talks/</v>
+      </c>
+      <c r="C127" t="str">
+        <v>US and Russia agree to reestablish military dialogue after Ukraine talks</v>
+      </c>
+      <c r="D127" t="str">
+        <v>美俄同意在乌克兰会谈后重建军事对话，旨在降低冲突风险，稳定局势。</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G127" t="str">
+        <v>2026-02-05T20:20:50.470Z</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B128" t="str">
+        <v>https://www.theguardian.com/world/2026/feb/05/iran-is-betting-that-trump-does-not-have-a-plan-for-regime-change</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Iran is betting that Trump does not have a plan for regime change</v>
+      </c>
+      <c r="D128" t="str">
+        <v>伊朗认为特朗普政府没有推翻伊朗政权的明确计划，并以此为赌注应对美国压力。</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+      <c r="F128" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G128" t="str">
+        <v>2026-02-05T20:20:50.470Z</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B129" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/activists-plan-new-bigger-flotilla-to-try-to-bring-aid-to-gaza</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Activists plan new, bigger flotilla to try to bring aid to Gaza</v>
+      </c>
+      <c r="D129" t="str">
+        <v>活动人士计划组织更大规模的船队，试图向加沙地带运送援助物资，可能引发与以色列的冲突。</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="F129" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G129" t="str">
+        <v>2026-02-05T20:20:50.470Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G125"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G129"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/data/news_2026-02-05.xlsx
+++ b/docs/data/news_2026-02-05.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3369,9 +3369,124 @@
         <v>2026-02-05T20:20:50.470Z</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B130" t="str">
+        <v>https://www.zerohedge.com/political/new-york-city-joins-whos-global-outbreak-response-network-after-us-exit</v>
+      </c>
+      <c r="C130" t="str">
+        <v>New York City Joins WHO's Global Outbreak Response Network After US Exit</v>
+      </c>
+      <c r="D130" t="str">
+        <v>美国退出世卫组织后，纽约市加入世卫组织的全球疫情应对网络，加强全球合作。</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="F130" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G130" t="str">
+        <v>2026-02-05T22:16:06.147Z</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B131" t="str">
+        <v>https://www.defensenews.com/global/europe/2026/02/05/trump-calls-for-new-nuclear-pact-as-us-russia-treaty-expires/</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Trump calls for new nuclear pact as US-Russia treaty expires</v>
+      </c>
+      <c r="D131" t="str">
+        <v>特朗普呼吁在美俄核武器条约到期后达成新的核协议，旨在限制核武器扩散。</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G131" t="str">
+        <v>2026-02-05T22:16:06.147Z</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B132" t="str">
+        <v>https://www.militarytimes.com/global/europe/2026/02/05/trump-calls-for-new-nuclear-pact-as-us-russia-treaty-expires/</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Trump calls for new nuclear pact as US-Russia treaty expires</v>
+      </c>
+      <c r="D132" t="str">
+        <v>特朗普呼吁在美俄核武器条约到期后达成新的核协议，以应对潜在的军备竞赛。</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G132" t="str">
+        <v>2026-02-05T22:16:06.147Z</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B133" t="str">
+        <v>https://www.twz.com/nuclear/what-the-sunset-of-key-u-s-russia-nuclear-deal-could-mean-for-americas-stockpile</v>
+      </c>
+      <c r="C133" t="str">
+        <v>What The Sunset Of Key U.S.-Russia Nuclear Deal Could Mean For America’s Stockpile</v>
+      </c>
+      <c r="D133" t="str">
+        <v>美俄关键核协议可能失效，或影响美国核武库规模及战略，引发军备竞赛担忧。</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G133" t="str">
+        <v>2026-02-05T22:16:06.147Z</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B134" t="str">
+        <v>https://www.rt.com/news/632077-trump-extending-new-start-treaty/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Trump comments on extending New START treaty</v>
+      </c>
+      <c r="D134" t="str">
+        <v>特朗普就延长《新削减战略武器条约》发表评论，该条约对美俄核武库构成限制。</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G134" t="str">
+        <v>2026-02-05T22:16:06.147Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G129"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G134"/>
   </ignoredErrors>
 </worksheet>
 </file>